--- a/Report Creator/test_subjects/Marks Sheet Term II 2024/O level Marks Sheet Term II 2024/Marksheet O level - CHEMISTRY.xlsx
+++ b/Report Creator/test_subjects/Marks Sheet Term II 2024/O level Marks Sheet Term II 2024/Marksheet O level - CHEMISTRY.xlsx
@@ -10,6 +10,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="X0Tno5MZkHuELecDp5+As8Q8UFkdRHx7TaefzUXTGJU="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -449,7 +454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -466,6 +471,10 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -481,17 +490,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -764,54 +774,78 @@
         <v>8</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2">
+        <v>9.0</v>
+      </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="2">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2">
+        <v>8.0</v>
+      </c>
       <c r="E4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="G4" s="2">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2">
+        <v>9.0</v>
+      </c>
       <c r="E5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="2">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="2">
+        <v>10.0</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="2">
+        <v>9.0</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="2">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="2">
+        <v>8.0</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="G8" s="2">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="s">
@@ -827,80 +861,117 @@
         <v>15</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="2">
+        <v>10.0</v>
+      </c>
       <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="G10" s="2">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="2">
+        <v>9.0</v>
+      </c>
       <c r="E11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="2">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="2">
+        <v>10.0</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="2">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="2">
+        <v>9.0</v>
+      </c>
       <c r="E13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="G13" s="2">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="2">
+        <v>8.0</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="2">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="2">
+        <v>9.0</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="G15" s="2">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="2">
+        <v>10.0</v>
+      </c>
       <c r="E16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="G16" s="2">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="2">
+        <v>8.0</v>
+      </c>
       <c r="E17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="G17" s="2">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="2">
+        <v>9.0</v>
+      </c>
       <c r="E18" s="1"/>
+      <c r="G18" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="s">
@@ -916,9 +987,13 @@
         <v>25</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="2">
+        <v>8.0</v>
+      </c>
       <c r="E20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="2">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="B21" s="1" t="s">
@@ -934,63 +1009,91 @@
         <v>27</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="2">
+        <v>9.0</v>
+      </c>
       <c r="E22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="2">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="B23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="2">
+        <v>9.0</v>
+      </c>
       <c r="E23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="2">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="2">
+        <v>10.0</v>
+      </c>
       <c r="E24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="G24" s="2">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="D25" s="2">
+        <v>9.0</v>
+      </c>
       <c r="E25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="G25" s="2">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="B26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="2">
+        <v>8.0</v>
+      </c>
       <c r="E26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="G26" s="2">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="B27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="2">
+        <v>8.0</v>
+      </c>
       <c r="E27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="2">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="B28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="2">
+        <v>9.0</v>
+      </c>
       <c r="E28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="G28" s="2">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="B29" s="1" t="s">
@@ -1015,13 +1118,23 @@
         <v>36</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="2">
+        <v>8.0</v>
+      </c>
       <c r="E31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="G31" s="2">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="D32" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>37.0</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -2046,6 +2159,9 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="F2" s="1"/>
+      <c r="G2" s="3">
+        <v>33.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
@@ -2054,6 +2170,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="F3" s="1"/>
+      <c r="G3" s="3">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
@@ -2062,6 +2181,9 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="F4" s="1"/>
+      <c r="G4" s="3">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
@@ -2070,6 +2192,9 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="F5" s="1"/>
+      <c r="G5" s="3">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
@@ -2078,6 +2203,9 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="F6" s="1"/>
+      <c r="G6" s="3">
+        <v>54.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
@@ -2085,6 +2213,9 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
+      <c r="G7" s="3">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
@@ -2092,6 +2223,9 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
+      <c r="G8" s="3">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="s">
@@ -2100,6 +2234,9 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="F9" s="1"/>
+      <c r="G9" s="3">
+        <v>42.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="s">
@@ -2108,6 +2245,9 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="F10" s="1"/>
+      <c r="G10" s="3">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="s">
@@ -2116,6 +2256,9 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="F11" s="1"/>
+      <c r="G11" s="3">
+        <v>54.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="s">
@@ -2132,6 +2275,9 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="F13" s="1"/>
+      <c r="G13" s="3">
+        <v>25.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" s="1" t="s">
@@ -2140,6 +2286,9 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="F14" s="1"/>
+      <c r="G14" s="3">
+        <v>63.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="s">
@@ -2148,6 +2297,9 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" s="1"/>
+      <c r="G15" s="3">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="s">
@@ -2163,6 +2315,9 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="F17" s="1"/>
+      <c r="G17" s="3">
+        <v>78.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="B18" s="1" t="s">
@@ -2171,6 +2326,9 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="F18" s="1"/>
+      <c r="G18" s="3">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="s">
@@ -2179,6 +2337,9 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="F19" s="1"/>
+      <c r="G19" s="3">
+        <v>21.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="1" t="s">
@@ -2187,6 +2348,9 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="F20" s="1"/>
+      <c r="G20" s="3">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="B21" s="1" t="s">
@@ -2195,6 +2359,9 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="F21" s="1"/>
+      <c r="G21" s="3">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="B22" s="1" t="s">
@@ -2203,6 +2370,9 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="F22" s="1"/>
+      <c r="G22" s="3">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="B23" s="1" t="s">
@@ -2218,6 +2388,9 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
+      <c r="G24" s="3">
+        <v>81.0</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="B25" s="1" t="s">
@@ -2226,6 +2399,9 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="F25" s="1"/>
+      <c r="G25" s="3">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="B26" s="1" t="s">
@@ -2234,6 +2410,9 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="F26" s="1"/>
+      <c r="G26" s="3">
+        <v>69.0</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="B27" s="1" t="s">
@@ -2242,6 +2421,9 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="F27" s="1"/>
+      <c r="G27" s="3">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="B28" s="1" t="s">
@@ -2250,6 +2432,9 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
+      <c r="G28" s="3">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="B29" s="1" t="s">
@@ -2258,6 +2443,9 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
+      <c r="G29" s="3">
+        <v>15.0</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="B30" s="1" t="s">
@@ -2266,6 +2454,9 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>
+      <c r="G30" s="3">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="1" t="s">
@@ -2274,6 +2465,9 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="F31" s="1"/>
+      <c r="G31" s="3">
+        <v>42.0</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
@@ -2282,6 +2476,9 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="F32" s="1"/>
+      <c r="G32" s="3">
+        <v>81.0</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
@@ -2290,6 +2487,9 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="F33" s="1"/>
+      <c r="G33" s="3">
+        <v>39.0</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
@@ -2298,6 +2498,9 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="F34" s="1"/>
+      <c r="G34" s="3">
+        <v>97.0</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
@@ -2306,6 +2509,9 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="F35" s="1"/>
+      <c r="G35" s="3">
+        <v>97.0</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="B36" s="1" t="s">
@@ -2314,6 +2520,9 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="F36" s="1"/>
+      <c r="G36" s="3">
+        <v>57.0</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="B37" s="1" t="s">
@@ -2322,6 +2531,9 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="F37" s="1"/>
+      <c r="G37" s="3">
+        <v>66.0</v>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="B38" s="1" t="s">
@@ -2330,6 +2542,9 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="F38" s="1"/>
+      <c r="G38" s="3">
+        <v>60.0</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="B39" s="1" t="s">
@@ -2338,6 +2553,9 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="F39" s="1"/>
+      <c r="G39" s="3">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="B40" s="1" t="s">
@@ -2346,6 +2564,9 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="F40" s="1"/>
+      <c r="G40" s="3">
+        <v>66.0</v>
+      </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="B41" s="1" t="s">
@@ -2354,6 +2575,9 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="F41" s="1"/>
+      <c r="G41" s="3">
+        <v>39.0</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="B42" s="1" t="s">
@@ -2370,6 +2594,9 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="F43" s="1"/>
+      <c r="G43" s="3">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="B44" s="1" t="s">
@@ -2386,6 +2613,9 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="F45" s="1"/>
+      <c r="G45" s="3">
+        <v>72.0</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="B46" s="1" t="s">
@@ -2394,6 +2624,9 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="F46" s="1"/>
+      <c r="G46" s="3">
+        <v>51.0</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="B47" s="1" t="s">
@@ -2402,6 +2635,9 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="F47" s="1"/>
+      <c r="G47" s="3">
+        <v>78.0</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="B48" s="1" t="s">
@@ -2410,6 +2646,9 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="F48" s="1"/>
+      <c r="G48" s="3">
+        <v>72.0</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="B49" s="1" t="s">
@@ -2426,6 +2665,9 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="F50" s="1"/>
+      <c r="G50" s="3">
+        <v>18.0</v>
+      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="B51" s="1" t="s">
@@ -2434,10 +2676,16 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="F51" s="1"/>
+      <c r="G51" s="3">
+        <v>42.0</v>
+      </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1"/>
@@ -3413,7 +3661,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3440,183 +3688,298 @@
         <v>88</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F2" s="1"/>
+      <c r="G2" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F3" s="1"/>
+      <c r="G3" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2">
+        <v>10.0</v>
+      </c>
       <c r="F4" s="1"/>
+      <c r="G4" s="3">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F5" s="1"/>
+      <c r="G5" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F6" s="1"/>
+      <c r="G6" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F7" s="1"/>
+      <c r="G7" s="3">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F8" s="1"/>
+      <c r="G8" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F9" s="1"/>
+      <c r="G9" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F10" s="1"/>
+      <c r="G10" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F11" s="1"/>
+      <c r="G11" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F12" s="1"/>
+      <c r="G12" s="3">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F13" s="1"/>
+      <c r="G13" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F14" s="1"/>
+      <c r="G14" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F15" s="1"/>
+      <c r="G15" s="3">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F16" s="1"/>
+      <c r="G16" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F17" s="1"/>
+      <c r="G17" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="B18" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F19" s="1"/>
+      <c r="G19" s="3">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F20" s="1"/>
+      <c r="G20" s="3">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="B21" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F21" s="1"/>
+      <c r="G21" s="3">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="B22" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F22" s="1"/>
+      <c r="G22" s="3">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="B23" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F23" s="1"/>
+      <c r="G23" s="3">
+        <v>16.0</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="B24" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="D24" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F24" s="1"/>
+      <c r="G24" s="3">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="B25" s="1" t="s">
@@ -3630,84 +3993,140 @@
         <v>112</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="D26" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F26" s="1"/>
+      <c r="G26" s="3">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="B27" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="D27" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F27" s="1"/>
+      <c r="G27" s="3">
+        <v>14.0</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="B28" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="D28" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F28" s="1"/>
+      <c r="G28" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="B29" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="D29" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F29" s="1"/>
+      <c r="G29" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="B30" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="D30" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F30" s="1"/>
+      <c r="G30" s="3">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F31" s="1"/>
+      <c r="G31" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F32" s="1"/>
+      <c r="G32" s="3">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F33" s="1"/>
+      <c r="G33" s="3">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F34" s="1"/>
+      <c r="G34" s="3">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="D35" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F35" s="1"/>
+      <c r="G35" s="3">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="D36" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G36" s="3">
+        <v>33.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>
@@ -4699,7 +5118,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4726,55 +5145,87 @@
         <v>122</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F2" s="1"/>
+      <c r="G2" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F3" s="1"/>
+      <c r="G3" s="3">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="D4" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F4" s="1"/>
+      <c r="G4" s="3">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F5" s="1"/>
+      <c r="G5" s="3">
+        <v>12.0</v>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F6" s="1"/>
+      <c r="G6" s="3">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F7" s="1"/>
+      <c r="G7" s="3">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="D8" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9">
@@ -4782,70 +5233,112 @@
         <v>128</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="D9" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F9" s="1"/>
+      <c r="G9" s="3">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="D10" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F10" s="1"/>
+      <c r="G10" s="3">
+        <v>20.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="D11" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="D12" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F12" s="1"/>
+      <c r="G12" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="D13" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F13" s="1"/>
+      <c r="G13" s="3">
+        <v>11.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F14" s="1"/>
+      <c r="G14" s="3">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F15" s="1"/>
+      <c r="G15" s="3">
+        <v>4.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="2">
+        <v>9.0</v>
+      </c>
       <c r="F16" s="1"/>
+      <c r="G16" s="3">
+        <v>10.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18">
@@ -4853,30 +5346,47 @@
         <v>137</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="D18" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>9.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="D19" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F19" s="1"/>
+      <c r="G19" s="3">
+        <v>7.0</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="D20" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F20" s="1"/>
+      <c r="G20" s="3">
+        <v>13.0</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="B21" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="D21" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
@@ -4884,20 +5394,36 @@
         <v>141</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F22" s="1"/>
+      <c r="G22" s="3">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="B23" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="D23" s="2">
+        <v>8.0</v>
+      </c>
       <c r="F23" s="1"/>
+      <c r="G23" s="3">
+        <v>5.0</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>37</v>
+      </c>
+      <c r="D24" s="3">
+        <v>11.0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>40.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
